--- a/data/trans_dic/P28C_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28C_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,21 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyas relaciones sociales han disminuido respecto al último mes</t>
+          <t>Población cuyas relaciones sociales han disminuido respecto al último mes (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,33 +544,87 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -542,6 +634,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10,16%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -579,17 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 12,68</t>
+          <t>5,56; 16,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 18,08</t>
+          <t>1,55; 10,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7,33; 13,47</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 14,19</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 13,35</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 10,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -606,17 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -629,17 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,83</t>
+          <t>8,76; 15,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 22,84</t>
+          <t>3,57; 9,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,25; 16,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 16,28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 11,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10,52; 14,72</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 9,8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -656,17 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12,91%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -679,24 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 19,72</t>
+          <t>9,97; 16,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 21,17</t>
+          <t>4,79; 16,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 18,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 15,86</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 13,08</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 15,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 12,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,27 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 18,94</t>
+          <t>4,74; 12,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 15,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 10,56</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 9,95</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12,39%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 13,72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 9,3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 14,3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 10,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 13,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 9,13</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas relaciones sociales han disminuido respecto al último mes (tasa de respuesta: 99,79%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>66541</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19955</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>91046</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>52130</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>157587</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>72085</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>39924; 120791</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6880; 46050</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>65678; 120681</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30281; 90613</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>118215; 215548</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43194; 113824</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>186385</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65339</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>196776</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96622</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>383161</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>161961</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>141366; 250354</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37878; 100159</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>163291; 242590</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>65762; 129473</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>326530; 456770</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>117697; 210092</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>138957</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>69508</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>151855</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>81249</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>290811</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>150757</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>108801; 177707</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39794; 137778</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>120784; 184194</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56659; 116910</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>242980; 340684</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>109894; 223668</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>80050</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67645</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>147695</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>51612; 132696</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>43874; 103534</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>106290; 205738</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>391883</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>234852</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>439676</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>297646</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>831560</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>532499</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>321854; 469705</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>178069; 318585</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>386187; 507386</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>241996; 360071</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>745933; 927576</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>450764; 641169</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
